--- a/Pledges.xlsx
+++ b/Pledges.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Purpose</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Other (Student Support, Departmental Support)</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,6 +519,27 @@
       <c r="E8">
         <f>SUM(E3:E7)</f>
         <v>86900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B5:B7)</f>
+        <v>7128</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C5:C7)</f>
+        <v>5982</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D5:D7)</f>
+        <v>6177</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E5:E7)</f>
+        <v>4709</v>
       </c>
     </row>
   </sheetData>
